--- a/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_1.2_KS_Holdout_seed_0/metrics/Trial_497__Reeval_Halton_Modell_1.2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_1.2_KS_Holdout_seed_0/metrics/Trial_497__Reeval_Halton_Modell_1.2.xlsx
@@ -5996,16 +5996,16 @@
                   <c:v>71.02423095703125</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.697225093841553</c:v>
+                  <c:v>6.697237014770508</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>103.3550872802734</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>95.07886505126953</c:v>
+                  <c:v>95.07887268066406</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>98.56942749023438</c:v>
+                  <c:v>98.56941986083984</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>-0.1962455958127975</c:v>
@@ -6020,49 +6020,49 @@
                   <c:v>97.38484191894531</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.60606050491333</c:v>
+                  <c:v>4.606037139892578</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>97.56655883789062</c:v>
+                  <c:v>97.56655120849609</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>97.92066192626953</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.360040903091431</c:v>
+                  <c:v>3.360052585601807</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-0.3807754814624786</c:v>
+                  <c:v>-0.3807989656925201</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>89.85297393798828</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.319051742553711</c:v>
+                  <c:v>4.319046020507812</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>73.27268218994141</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.186082601547241</c:v>
+                  <c:v>3.186070919036865</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>75.42869567871094</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.72398042678833</c:v>
+                  <c:v>4.72395658493042</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>98.65240478515625</c:v>
+                  <c:v>98.65242004394531</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5.948777198791504</c:v>
+                  <c:v>5.948771476745605</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.429997682571411</c:v>
+                  <c:v>3.429994821548462</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>32.71950531005859</c:v>
+                  <c:v>32.71950149536133</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>57.50804138183594</c:v>
@@ -6071,22 +6071,22 @@
                   <c:v>1.314366221427917</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>97.26993560791016</c:v>
+                  <c:v>97.26992797851562</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>98.33870697021484</c:v>
+                  <c:v>98.33869934082031</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>56.023193359375</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>31.18172264099121</c:v>
+                  <c:v>31.18173027038574</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>1.723008394241333</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.698473930358887</c:v>
+                  <c:v>1.698479890823364</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>91.27313995361328</c:v>
@@ -6098,7 +6098,7 @@
                   <c:v>81.89695739746094</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>12.08366012573242</c:v>
+                  <c:v>12.08365631103516</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>92.46377563476562</c:v>
@@ -6128,25 +6128,25 @@
                   <c:v>92.52455139160156</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>13.78030586242676</c:v>
+                  <c:v>13.78030872344971</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>83.04644775390625</c:v>
+                  <c:v>83.04645538330078</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>100.551399230957</c:v>
+                  <c:v>100.551383972168</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>39.39330673217773</c:v>
+                  <c:v>39.39329528808594</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>2.905568361282349</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>58.39494323730469</c:v>
+                  <c:v>58.39493942260742</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-1.183821320533752</c:v>
+                  <c:v>-1.183815479278564</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>99.86226654052734</c:v>
@@ -6158,7 +6158,7 @@
                   <c:v>28.84249877929688</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.1125166490674019</c:v>
+                  <c:v>0.1125049144029617</c:v>
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>101.9767608642578</c:v>
@@ -6170,7 +6170,7 @@
                   <c:v>84.72860717773438</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>2.697554111480713</c:v>
+                  <c:v>2.697566032409668</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>78.40538024902344</c:v>
@@ -6191,31 +6191,31 @@
                   <c:v>67.58388519287109</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>12.15212631225586</c:v>
+                  <c:v>12.15211772918701</c:v>
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>3.569140195846558</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>96.33342742919922</c:v>
+                  <c:v>96.33343505859375</c:v>
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>101.0770874023438</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>97.93743896484375</c:v>
+                  <c:v>97.93744659423828</c:v>
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>101.5813217163086</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>4.292325973510742</c:v>
+                  <c:v>4.292311668395996</c:v>
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>81.43208312988281</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>89.33665466308594</c:v>
+                  <c:v>89.33664703369141</c:v>
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>96.57962799072266</c:v>
@@ -6224,7 +6224,7 @@
                   <c:v>51.57546234130859</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.2775164246559143</c:v>
+                  <c:v>0.2775281667709351</c:v>
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>100.0576934814453</c:v>
@@ -6233,22 +6233,22 @@
                   <c:v>98.38792419433594</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.1674755066633224</c:v>
+                  <c:v>0.1674931049346924</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>91.64015197753906</c:v>
+                  <c:v>91.64014434814453</c:v>
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>52.91588973999023</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>93.76504516601562</c:v>
+                  <c:v>93.76503753662109</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>-3.607877731323242</c:v>
+                  <c:v>-3.607889413833618</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>27.71085739135742</c:v>
+                  <c:v>27.71086883544922</c:v>
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>97.23810577392578</c:v>
@@ -6257,7 +6257,7 @@
                   <c:v>84.66229248046875</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>-0.107835054397583</c:v>
+                  <c:v>-0.1078467890620232</c:v>
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>80.57281494140625</c:v>
@@ -6266,25 +6266,25 @@
                   <c:v>98.49098968505859</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>-2.038352966308594</c:v>
+                  <c:v>-2.03836464881897</c:v>
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>99.31427001953125</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>3.38370680809021</c:v>
+                  <c:v>3.383724451065063</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>96.64972686767578</c:v>
+                  <c:v>96.64971923828125</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>6.334829807281494</c:v>
+                  <c:v>6.334835529327393</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>53.06874084472656</c:v>
+                  <c:v>53.06873321533203</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>97.16769409179688</c:v>
+                  <c:v>97.16770172119141</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7075,7 +7075,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>6.697225093841553</v>
+        <v>6.697237014770508</v>
       </c>
       <c r="G5">
         <v>107</v>
@@ -7139,7 +7139,7 @@
         <v>96.0889</v>
       </c>
       <c r="F7">
-        <v>95.07886505126953</v>
+        <v>95.07887268066406</v>
       </c>
       <c r="G7">
         <v>107</v>
@@ -7171,7 +7171,7 @@
         <v>97.5325</v>
       </c>
       <c r="F8">
-        <v>98.56942749023438</v>
+        <v>98.56941986083984</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -7271,7 +7271,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>4.60606050491333</v>
+        <v>4.606037139892578</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -7291,7 +7291,7 @@
         <v>97.7777</v>
       </c>
       <c r="F14">
-        <v>97.56655883789062</v>
+        <v>97.56655120849609</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -7331,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.360040903091431</v>
+        <v>3.360052585601807</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -7351,7 +7351,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>-0.3807754814624786</v>
+        <v>-0.3807989656925201</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -7391,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>4.319051742553711</v>
+        <v>4.319046020507812</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -7431,7 +7431,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>3.186082601547241</v>
+        <v>3.186070919036865</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -7471,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>4.72398042678833</v>
+        <v>4.72395658493042</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -7491,7 +7491,7 @@
         <v>94.6263</v>
       </c>
       <c r="F24">
-        <v>98.65240478515625</v>
+        <v>98.65242004394531</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -7511,7 +7511,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>5.948777198791504</v>
+        <v>5.948771476745605</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -7531,7 +7531,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>3.429997682571411</v>
+        <v>3.429994821548462</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7551,7 +7551,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>32.71950531005859</v>
+        <v>32.71950149536133</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -7611,7 +7611,7 @@
         <v>90.9726</v>
       </c>
       <c r="F30">
-        <v>97.26993560791016</v>
+        <v>97.26992797851562</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7631,7 +7631,7 @@
         <v>94.28400000000001</v>
       </c>
       <c r="F31">
-        <v>98.33870697021484</v>
+        <v>98.33869934082031</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7671,7 +7671,7 @@
         <v>24.6551</v>
       </c>
       <c r="F33">
-        <v>31.18172264099121</v>
+        <v>31.18173027038574</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7711,7 +7711,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.698473930358887</v>
+        <v>1.698479890823364</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7791,7 +7791,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>12.08366012573242</v>
+        <v>12.08365631103516</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7991,7 +7991,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>13.78030586242676</v>
+        <v>13.78030872344971</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -8011,7 +8011,7 @@
         <v>60.2136</v>
       </c>
       <c r="F50">
-        <v>83.04644775390625</v>
+        <v>83.04645538330078</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -8031,7 +8031,7 @@
         <v>97.8107</v>
       </c>
       <c r="F51">
-        <v>100.551399230957</v>
+        <v>100.551383972168</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -8051,7 +8051,7 @@
         <v>52.4695</v>
       </c>
       <c r="F52">
-        <v>39.39330673217773</v>
+        <v>39.39329528808594</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -8091,7 +8091,7 @@
         <v>55.2559</v>
       </c>
       <c r="F54">
-        <v>58.39494323730469</v>
+        <v>58.39493942260742</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -8111,7 +8111,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>-1.183821320533752</v>
+        <v>-1.183815479278564</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -8191,7 +8191,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>0.1125166490674019</v>
+        <v>0.1125049144029617</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -8271,7 +8271,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>2.697554111480713</v>
+        <v>2.697566032409668</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>12.15212631225586</v>
+        <v>12.15211772918701</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -8451,7 +8451,7 @@
         <v>94.26949999999999</v>
       </c>
       <c r="F72">
-        <v>96.33342742919922</v>
+        <v>96.33343505859375</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -8491,7 +8491,7 @@
         <v>95.4374</v>
       </c>
       <c r="F74">
-        <v>97.93743896484375</v>
+        <v>97.93744659423828</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -8531,7 +8531,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>4.292325973510742</v>
+        <v>4.292311668395996</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -8571,7 +8571,7 @@
         <v>64.6464</v>
       </c>
       <c r="F78">
-        <v>89.33665466308594</v>
+        <v>89.33664703369141</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -8631,7 +8631,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>0.2775164246559143</v>
+        <v>0.2775281667709351</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -8691,7 +8691,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>0.1674755066633224</v>
+        <v>0.1674931049346924</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -8711,7 +8711,7 @@
         <v>60.5714</v>
       </c>
       <c r="F85">
-        <v>91.64015197753906</v>
+        <v>91.64014434814453</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -8751,7 +8751,7 @@
         <v>94.4075</v>
       </c>
       <c r="F87">
-        <v>93.76504516601562</v>
+        <v>93.76503753662109</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -8771,7 +8771,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>-3.607877731323242</v>
+        <v>-3.607889413833618</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -8791,7 +8791,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>27.71085739135742</v>
+        <v>27.71086883544922</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -8851,7 +8851,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>-0.107835054397583</v>
+        <v>-0.1078467890620232</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -8911,7 +8911,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>-2.038352966308594</v>
+        <v>-2.03836464881897</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -8951,7 +8951,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>3.38370680809021</v>
+        <v>3.383724451065063</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -8971,7 +8971,7 @@
         <v>94.0264</v>
       </c>
       <c r="F98">
-        <v>96.64972686767578</v>
+        <v>96.64971923828125</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -8991,7 +8991,7 @@
         <v>13.7923</v>
       </c>
       <c r="F99">
-        <v>6.334829807281494</v>
+        <v>6.334835529327393</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -9011,7 +9011,7 @@
         <v>50.6355</v>
       </c>
       <c r="F100">
-        <v>53.06874084472656</v>
+        <v>53.06873321533203</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -9031,7 +9031,7 @@
         <v>98.1628</v>
       </c>
       <c r="F101">
-        <v>97.16769409179688</v>
+        <v>97.16770172119141</v>
       </c>
     </row>
     <row r="102" spans="1:6">
